--- a/dat/928264621910003723/나비에필로그비공개.xlsx
+++ b/dat/928264621910003723/나비에필로그비공개.xlsx
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>저는 “교수” 같은 끔찍한 인간이 아니니 위험한 일이 생길 거라는 걱정은 하지 않으셔도 됩니다.```</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>```물론, 희생자는 생길 수 있지만요!```</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,11 +98,6 @@
   <si>
     <t>```스페셜리스트
 “항해사” 로부터```</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">명한은 핸드폰을 집어넣으며 박탐정에게 말했다.
-현명한: ……탐정님 말이 맞아요. 이대로 주저 앉으면 안될 것 같습니다! 벌써 다음 사건이……기다리고 있습니다.``` </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,6 +150,15 @@
 에필로그 양농구의편지: Duggy Music – Memories
 작곡가 유튜브 채널: https://www.youtube.com/@DUGGYMUSIC
 엔딩 Tragedy: Cold – Jorge Mendez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>```저는 “교수” 같은 끔찍한 인간이 아니니 위험한 일이 생길 거라는 걱정은 하지 않으셔도 됩니다.```</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명한은 핸드폰을 집어넣으며 박탐정에게 말했다.
+현명한: ……탐정님 말이 맞아요. 이대로 주저 앉으면 안될 것 같습니다! 벌써 다음 사건이……기다리고 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,87 +615,87 @@
     </row>
     <row r="15" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
